--- a/school mockup data/KMUTNB/form_car_2.xlsx
+++ b/school mockup data/KMUTNB/form_car_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perawit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_code_Project\project_childcare_mobileapp\school mockup data\KMUTNB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3248CE-7F6A-4682-99CA-9A60A14009A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EA1794-D308-4E23-9A6F-AA6329515459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4488" yWindow="1068" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4455" yWindow="2700" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t>1/1</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>1 ซอย ฉลองกรุง 1 แขวงลาดกระบัง เขตลาดกระบัง กรุงเทพมหานคร 10520</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>33111</t>
+  </si>
+  <si>
+    <t>another wei child</t>
   </si>
 </sst>
 </file>
@@ -579,22 +588,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13.69921875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="23.69921875" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.296875" style="6" customWidth="1"/>
-    <col min="6" max="9" width="17.69921875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="62.19921875" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="8.69921875" style="3"/>
+    <col min="2" max="2" width="13.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10.25" style="6" customWidth="1"/>
+    <col min="6" max="9" width="17.75" style="3" customWidth="1"/>
+    <col min="10" max="10" width="62.25" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -626,7 +635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -658,7 +667,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -690,7 +699,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -722,7 +731,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -754,7 +763,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -786,7 +795,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -818,136 +827,168 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D53" s="3"/>
     </row>
   </sheetData>
